--- a/result/NCDC_weather_data/stations_imputed/58265099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58265099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01975075177304965</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01975075177304965</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01975075177304965</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0.007365999999999999</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01975075177304965</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
